--- a/prototype2/Tables_Draft.xlsx
+++ b/prototype2/Tables_Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CE7FC1-4D51-4442-8AE4-D488DC586D42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677D1E2-0DD1-4A0D-8FA1-5723FD90540D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{E16B637A-06A9-4BC7-B4E0-4DC1F423E407}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Professor Table</t>
   </si>
@@ -96,13 +96,25 @@
     <t>TO GET A PROFESSOR ACCOUNT</t>
   </si>
   <si>
-    <t>1-Request an account</t>
-  </si>
-  <si>
-    <t>2-Request will be reviewed and approved/denied by any other professor</t>
-  </si>
-  <si>
-    <t>3-If appoved a temporary usr name and password will be auto generated (kill after 48 hours?) and emailed to requester</t>
+    <t>tmpUser</t>
+  </si>
+  <si>
+    <t>tmpPass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TempAccount Table </t>
+  </si>
+  <si>
+    <t>Request an account</t>
+  </si>
+  <si>
+    <t>Request will be reviewed and approved/denied by any other professor</t>
+  </si>
+  <si>
+    <t>If appoved a temporary usr name and password will be auto generated (kill after 48 hours?) and emailed to requester</t>
+  </si>
+  <si>
+    <t>userEmail</t>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB37FCF-6BD0-44CA-941A-B5DFF9A98F0A}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,24 +568,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
